--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/CD/20/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/CD/20/seed3/result_data_RandomForest.xlsx
@@ -494,7 +494,7 @@
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.668299999999999</v>
+        <v>-7.686300000000004</v>
       </c>
     </row>
     <row r="5">
@@ -547,7 +547,7 @@
         <v>2.91</v>
       </c>
       <c r="C8" t="n">
-        <v>-14.2033</v>
+        <v>-14.4875</v>
       </c>
       <c r="D8" t="n">
         <v>-8.029999999999999</v>
@@ -575,7 +575,7 @@
         <v>6.17</v>
       </c>
       <c r="C10" t="n">
-        <v>-13.4047</v>
+        <v>-13.25029999999999</v>
       </c>
       <c r="D10" t="n">
         <v>-8.85</v>
@@ -592,7 +592,7 @@
         <v>-10.8</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.432099999999998</v>
+        <v>-7.012699999999994</v>
       </c>
     </row>
     <row r="12">
@@ -603,10 +603,10 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.2737</v>
+        <v>-13.2601</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.030399999999997</v>
+        <v>-8.588400000000002</v>
       </c>
     </row>
     <row r="13">
@@ -648,7 +648,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.284799999999995</v>
+        <v>-8.546199999999997</v>
       </c>
     </row>
     <row r="16">
@@ -676,7 +676,7 @@
         <v>-14.84</v>
       </c>
       <c r="D17" t="n">
-        <v>-8.313099999999995</v>
+        <v>-8.308199999999992</v>
       </c>
     </row>
     <row r="18">
@@ -687,7 +687,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-10.85219999999999</v>
+        <v>-10.8224</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -785,7 +785,7 @@
         <v>5.23</v>
       </c>
       <c r="C25" t="n">
-        <v>-10.9873</v>
+        <v>-10.8538</v>
       </c>
       <c r="D25" t="n">
         <v>-7.4</v>
@@ -802,7 +802,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.26110000000001</v>
+        <v>-7.251700000000003</v>
       </c>
     </row>
     <row r="27">
@@ -816,7 +816,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.2209</v>
+        <v>-8.439400000000001</v>
       </c>
     </row>
     <row r="28">
@@ -830,7 +830,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-8.424099999999992</v>
+        <v>-8.553799999999999</v>
       </c>
     </row>
     <row r="29">
@@ -886,7 +886,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-6.559699999999997</v>
+        <v>-6.309499999999996</v>
       </c>
     </row>
     <row r="33">
@@ -953,10 +953,10 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-12.85900000000001</v>
+        <v>-13.59340000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.192799999999997</v>
+        <v>-7.077000000000002</v>
       </c>
     </row>
     <row r="38">
@@ -1012,7 +1012,7 @@
         <v>-14.21</v>
       </c>
       <c r="D41" t="n">
-        <v>-8.018199999999997</v>
+        <v>-8.311699999999991</v>
       </c>
     </row>
     <row r="42">
@@ -1096,7 +1096,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-8.004299999999995</v>
+        <v>-7.848000000000002</v>
       </c>
     </row>
     <row r="48">
@@ -1152,7 +1152,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.2936</v>
+        <v>-8.6119</v>
       </c>
     </row>
     <row r="52">
@@ -1205,7 +1205,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.20480000000001</v>
+        <v>-12.9402</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1348,7 +1348,7 @@
         <v>-11.86</v>
       </c>
       <c r="D65" t="n">
-        <v>-7.7213</v>
+        <v>-7.924800000000005</v>
       </c>
     </row>
     <row r="66">
@@ -1387,7 +1387,7 @@
         <v>4.88</v>
       </c>
       <c r="C68" t="n">
-        <v>-10.8954</v>
+        <v>-10.781</v>
       </c>
       <c r="D68" t="n">
         <v>-7.27</v>
@@ -1460,7 +1460,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-8.231499999999993</v>
+        <v>-7.995599999999999</v>
       </c>
     </row>
     <row r="74">
@@ -1513,7 +1513,7 @@
         <v>10.09</v>
       </c>
       <c r="C77" t="n">
-        <v>-13.13970000000001</v>
+        <v>-13.06610000000001</v>
       </c>
       <c r="D77" t="n">
         <v>-6.2</v>
@@ -1527,7 +1527,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-13.02800000000001</v>
+        <v>-12.65800000000001</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1541,7 +1541,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>-12.7714</v>
+        <v>-12.30890000000001</v>
       </c>
       <c r="D79" t="n">
         <v>-4.8</v>
@@ -1555,7 +1555,7 @@
         <v>11.21</v>
       </c>
       <c r="C80" t="n">
-        <v>-12.98090000000001</v>
+        <v>-12.72160000000001</v>
       </c>
       <c r="D80" t="n">
         <v>-6.63</v>
@@ -1569,7 +1569,7 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-14.4392</v>
+        <v>-14.6933</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1583,7 +1583,7 @@
         <v>5.26</v>
       </c>
       <c r="C82" t="n">
-        <v>-11.07239999999999</v>
+        <v>-11.07769999999999</v>
       </c>
       <c r="D82" t="n">
         <v>-7.37</v>
@@ -1611,10 +1611,10 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-13.0529</v>
+        <v>-13.0872</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.189399999999999</v>
+        <v>-8.515400000000001</v>
       </c>
     </row>
     <row r="85">
@@ -1628,7 +1628,7 @@
         <v>-13.1</v>
       </c>
       <c r="D85" t="n">
-        <v>-7.955899999999999</v>
+        <v>-8.223500000000001</v>
       </c>
     </row>
     <row r="86">
@@ -1684,7 +1684,7 @@
         <v>-14.65</v>
       </c>
       <c r="D89" t="n">
-        <v>-8.427300000000001</v>
+        <v>-8.402599999999993</v>
       </c>
     </row>
     <row r="90">
@@ -1740,7 +1740,7 @@
         <v>-10.09</v>
       </c>
       <c r="D93" t="n">
-        <v>-6.701199999999992</v>
+        <v>-6.450499999999992</v>
       </c>
     </row>
     <row r="94">
@@ -1768,7 +1768,7 @@
         <v>-11.3</v>
       </c>
       <c r="D95" t="n">
-        <v>-7.5028</v>
+        <v>-7.626900000000001</v>
       </c>
     </row>
     <row r="96">
@@ -1810,7 +1810,7 @@
         <v>-10.59</v>
       </c>
       <c r="D98" t="n">
-        <v>-7.104900000000004</v>
+        <v>-7.0448</v>
       </c>
     </row>
     <row r="99">
@@ -1824,7 +1824,7 @@
         <v>-13.93</v>
       </c>
       <c r="D99" t="n">
-        <v>-8.356600000000006</v>
+        <v>-8.291100000000005</v>
       </c>
     </row>
     <row r="100">
@@ -1849,10 +1849,10 @@
         <v>8.42</v>
       </c>
       <c r="C101" t="n">
-        <v>-12.7189</v>
+        <v>-13.22459999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>-6.899100000000001</v>
+        <v>-7.7341</v>
       </c>
     </row>
     <row r="102">
@@ -1863,10 +1863,10 @@
         <v>9.130000000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>-12.96480000000001</v>
+        <v>-12.62930000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.188399999999999</v>
+        <v>-7.072899999999996</v>
       </c>
     </row>
     <row r="103">
